--- a/biology/Médecine/Immunosuppression/Immunosuppression.xlsx
+++ b/biology/Médecine/Immunosuppression/Immunosuppression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'immunosuppression est l'inhibition de l'activation du système immunitaire. 
-Elle peut être induite par une intoxication (le plomb responsable du saturnisme par exemple a une composante immunotoxique[1],[2],[3],[4]), la radioactivité, certaines maladies (VIH/sida...) ou naturellement enclenchée par l'organisme dans certaines conditions. Elle est parfois volontairement induite pour des raisons médicales (pour éviter un rejet de greffe par exemple).   
+Elle peut être induite par une intoxication (le plomb responsable du saturnisme par exemple a une composante immunotoxique), la radioactivité, certaines maladies (VIH/sida...) ou naturellement enclenchée par l'organisme dans certaines conditions. Elle est parfois volontairement induite pour des raisons médicales (pour éviter un rejet de greffe par exemple).   
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Typologies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette immunosuppression peut être 
 naturelle. Elle se produit pour éviter l'« emballement » du système immunitaire. Ainsi, à la suite d'une hyper-inflammation induite par le système immunitaire, à la suite d'une infection ou d'un traumatisme sévère, ou encore d'une allergie, la réponse immunitaire va alors normalement se réguler pour entrer dans une phase d'immunosuppression, ceci permettant de retrouver progressivement un état d'homéostasie de l'organisme.
@@ -544,7 +558,9 @@
           <t>Effets secondaires des traitements immunosuppresseurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inconvénient d'un système immunitaire ainsi désactivé est que le corps est alors très vulnérable à des maladies opportunistes, même celles considérées habituellement comme sans danger. De plus, l'usage prolongé de certains immunosuppresseurs comme la ciclosporine augmente le risque de cancer. Tandis qu'au contraire l'azathioprine a une activité anticancéreuse.
 </t>
@@ -575,7 +591,9 @@
           <t>Immunosuppresseurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La cortisone a été le premier immunosuppresseur identifié.
 L'azathioprine, plus efficace, a été identifiée en 1959 mais ce n'est qu'avec la découverte de la ciclosporine en 1970 que la chirurgie des greffes a trouvé un immunosuppresseur suffisamment puissant.
